--- a/pred_ohlcv/54_21/2019-10-30 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 LAMB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>342825.5875113208</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -548,7 +548,7 @@
         <v>332428.7199113208</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-485828.6462886792</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-356938.1425886792</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-364938.1425886792</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-364938.1425886792</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-364938.1425886792</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-364938.1425886792</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-203143.4026886792</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>1628163.90460165</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>1349217.08680165</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>1538472.27330165</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>1312686.540135338</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>1280244.002235338</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>1453646.481935338</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>1744184.326935338</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>2016816.684935338</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>2201490.683268562</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>2098638.710968562</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>2166734.710968562</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>2166734.710968562</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>2137302.732868562</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>2182693.500860088</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>2324374.986560088</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>2201844.766160088</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>2201844.766160088</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>2220728.706370548</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>1926143.361303772</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>2078532.682802081</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>1399398.923902081</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>1399398.923902081</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>1450675.216102081</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>1630775.180402081</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>1651147.212802081</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>1692245.728702081</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>1688245.728702081</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>1795490.841502081</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>1782922.775202081</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1755413.810902081</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1755413.810902081</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1746177.296802081</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1778745.292502081</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1767472.530702081</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1767472.530702081</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1776862.361202081</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1784242.356302081</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>1618548.101826142</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>1769120.476226142</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>1754628.884926142</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>1844504.749326142</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>1752572.534799152</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>1881735.387966575</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>1726206.586876285</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>1779290.632892968</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>1737081.279603328</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>1737081.279603328</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>1737081.279603328</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>1754892.586380686</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>1748225.038180686</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>1097465.549980686</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>1197634.797280686</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>1261834.797280686</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>1285074.293080686</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>1281602.782680686</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>1281602.782680686</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>1253700.835380686</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>1250620.059880686</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>1240982.013680686</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>1241538.182080686</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>986678.4469806857</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-1161508.19405148</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-1238103.72245148</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-1165503.43235148</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-1186158.40155148</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-1199806.87225148</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-1199795.76115148</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-1055622.35235148</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>195921.2344142403</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>176337.8276142403</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>319345.8158142403</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>157076.1140142402</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>107213.8257142402</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>249725.4965142403</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>289854.2505142403</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>383900.2333142403</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>479423.1800142403</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>162225.4579142403</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>55948.94901424031</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>42175.37301424031</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>11295.34161424031</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>73998.43831424031</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>47390.20421424031</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-33530.8534857597</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>7185.0314142403</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>7168.8595142403</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>26522.7106142403</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>72763.0336142403</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>72763.0336142403</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>72763.0336142403</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>120537.7247142403</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>185095.3777142403</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>183125.5821142403</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>181638.7940142403</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>98115.31111424026</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>57426.39611424026</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-79769.86738575975</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-51032.06138575975</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-171914.7385857598</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-391501.7275459984</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-326975.1120459984</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-518018.7970291667</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 LAMB ohlcv.xlsx
@@ -3902,7 +3902,7 @@
         <v>-261063.4026886792</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-261063.4026886792</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-195463.4026886792</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-196064.3019886792</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-196048.5359886792</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-196048.5359886792</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-196048.5359886792</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-123561.4268886792</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>146215.5523113208</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>1628163.90460165</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>1349217.08680165</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>1538472.27330165</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>1312686.540135338</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>1280244.002235338</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>1453646.481935338</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>1744184.326935338</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>2016816.684935338</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>2201490.683268562</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>2098638.710968562</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>2166734.710968562</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>2166734.710968562</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>2137302.732868562</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>2182693.500860088</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>2324374.986560088</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>2201844.766160088</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>2201844.766160088</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>2220728.706370548</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>1926143.361303772</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>2078532.682802081</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>1399398.923902081</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>1399398.923902081</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>1450675.216102081</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>1630775.180402081</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>1651147.212802081</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>1692245.728702081</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>1688245.728702081</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>1795490.841502081</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>1782922.775202081</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1755413.810902081</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1755413.810902081</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1746177.296802081</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1778745.292502081</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1767472.530702081</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1767472.530702081</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1776862.361202081</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1784242.356302081</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>1618548.101826142</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>1769120.476226142</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>1754628.884926142</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>1844504.749326142</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>1752572.534799152</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>1881735.387966575</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>1726206.586876285</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>1779290.632892968</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>1737081.279603328</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>1737081.279603328</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>1737081.279603328</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>1754892.586380686</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>1748225.038180686</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>1097465.549980686</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>1197634.797280686</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>1261834.797280686</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>1285074.293080686</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>1281602.782680686</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>1281602.782680686</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>1253700.835380686</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>1250620.059880686</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>1240982.013680686</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>1241538.182080686</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>986678.4469806857</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-1161508.19405148</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-1238103.72245148</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-1165503.43235148</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-1186158.40155148</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-1199806.87225148</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-1199795.76115148</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-1055622.35235148</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>157076.1140142402</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>383900.2333142403</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>479423.1800142403</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>162225.4579142403</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>55948.94901424031</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>42175.37301424031</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>11295.34161424031</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>47390.20421424031</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>7185.0314142403</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>7168.8595142403</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>26522.7106142403</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>72763.0336142403</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>72763.0336142403</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>72763.0336142403</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>120537.7247142403</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>185095.3777142403</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>183125.5821142403</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>181638.7940142403</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>98115.31111424026</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>57426.39611424026</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-79769.86738575975</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-51032.06138575975</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-171914.7385857598</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-391501.7275459984</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
